--- a/CASUAL/LA CHO/AMBION, HERSHEY.xlsx
+++ b/CASUAL/LA CHO/AMBION, HERSHEY.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -213,16 +213,13 @@
     <t>2023</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
+    <t>UT(0-2-2)</t>
   </si>
   <si>
-    <t>A(2-0-0)</t>
+    <t>VL(2-0-0)</t>
   </si>
   <si>
-    <t>9/12,13/2022</t>
-  </si>
-  <si>
-    <t>UT(0-2-2)</t>
+    <t>10/23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -459,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,6 +599,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2940,10 +2940,10 @@
   </sheetPr>
   <dimension ref="A2:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A57" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2965,60 +2965,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3044,18 +3044,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3102,7 +3102,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.745999999999995</v>
+        <v>62.245999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3112,7 +3112,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>85</v>
+        <v>87.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4251,15 +4251,11 @@
       <c r="A66" s="40">
         <v>44652</v>
       </c>
-      <c r="B66" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="B66" s="20"/>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="39">
-        <v>1</v>
-      </c>
+      <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -4269,9 +4265,7 @@
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="49">
-        <v>44664</v>
-      </c>
+      <c r="K66" s="49"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
@@ -4298,7 +4292,7 @@
         <v>44713</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C68" s="13">
         <v>1.25</v>
@@ -4321,15 +4315,11 @@
       <c r="A69" s="40">
         <v>44743</v>
       </c>
-      <c r="B69" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="B69" s="20"/>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
-      <c r="D69" s="39">
-        <v>1</v>
-      </c>
+      <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
@@ -4339,23 +4329,17 @@
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="49">
-        <v>44757</v>
-      </c>
+      <c r="K69" s="49"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
-      <c r="B70" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="B70" s="20"/>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39">
-        <v>1</v>
-      </c>
+      <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4365,23 +4349,17 @@
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="49">
-        <v>44812</v>
-      </c>
+      <c r="K70" s="49"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
-      <c r="B71" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="B71" s="20"/>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="39">
-        <v>2</v>
-      </c>
+      <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -4391,16 +4369,14 @@
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -4426,14 +4402,12 @@
         <v>44866</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
-      <c r="D73" s="39">
-        <v>1</v>
-      </c>
+      <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
@@ -4656,13 +4630,15 @@
         <v>45199</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4674,13 +4650,15 @@
         <v>45230</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4691,7 +4669,9 @@
       <c r="A86" s="40">
         <v>45260</v>
       </c>
-      <c r="B86" s="20"/>
+      <c r="B86" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
@@ -4703,7 +4683,9 @@
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="49">
+        <v>45237</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
@@ -5444,10 +5426,10 @@
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="M4" sqref="M4"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5469,60 +5451,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5548,18 +5530,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5606,7 +5588,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>56.5</v>
+        <v>52.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5640,35 +5622,35 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
-        <v>44743</v>
+      <c r="A11" s="50">
+        <v>44652</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="39"/>
+      <c r="D11" s="39">
+        <v>1</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
       <c r="G11" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H11" s="39">
-        <v>1</v>
-      </c>
+      <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="49">
-        <v>44757</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
-        <v>44805</v>
+        <v>44743</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="39"/>
@@ -5679,19 +5661,25 @@
         <v/>
       </c>
       <c r="H12" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="20" t="s">
-        <v>53</v>
+      <c r="K12" s="49">
+        <v>44757</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="39"/>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
       <c r="G13" s="13" t="str">
@@ -5701,30 +5689,32 @@
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="49">
+        <v>44812</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="39">
-        <v>1</v>
-      </c>
+      <c r="D14" s="39"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
       <c r="G14" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H14" s="39"/>
+      <c r="H14" s="39">
+        <v>2</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="49">
-        <v>44858</v>
+      <c r="K14" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5838,10 +5828,16 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="40">
+        <v>45208</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="39"/>
+      <c r="D20" s="39">
+        <v>2</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13" t="str">
@@ -5851,13 +5847,21 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="39"/>
+      <c r="D21" s="39">
+        <v>1</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
       <c r="G21" s="13" t="str">
@@ -5867,7 +5871,9 @@
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="49">
+        <v>45274</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -6716,17 +6722,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -6809,12 +6815,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
